--- a/2010-2020 Holiday Dates.xlsx
+++ b/2010-2020 Holiday Dates.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="144">
   <si>
     <t>Good Friday</t>
   </si>
@@ -465,9 +465,6 @@
   </si>
   <si>
     <t xml:space="preserve">  https://www.opm.gov/policy-data-oversight/snow-dismissal-procedures/federal-holidays/#url=2017</t>
-  </si>
-  <si>
-    <t>Source: https://www.timeanddate.com/holidays/us/… Note that more years (besides 2011-2020) are available here.</t>
   </si>
   <si>
     <t xml:space="preserve">List of Dates of Holidays from 2010-2020. </t>
@@ -503,6 +500,12 @@
       </rPr>
       <t>]</t>
     </r>
+  </si>
+  <si>
+    <t>Source: https://www.timeanddate.com/holidays/us/… Note that more years (besides 2010-2020) are available here.</t>
+  </si>
+  <si>
+    <t>List of US Federal Holidays observed and info about them. Rules for treating special cases like hols falling on weekends</t>
   </si>
 </sst>
 </file>
@@ -680,9 +683,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -699,16 +699,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -719,16 +713,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -757,6 +745,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1065,20 +1068,20 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="4.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="37" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1093,122 +1096,122 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>141</v>
+      <c r="A5" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
-        <v>140</v>
+      <c r="A6" s="38" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="36" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1218,12 +1221,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="38" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1233,12 +1236,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="38" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1248,21 +1251,21 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>134</v>
+      <c r="A28" s="12" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="43"/>
+      <c r="B29" s="38"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1279,3901 +1282,3901 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="13"/>
-    <col min="5" max="5" width="17.140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="11.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="12"/>
+    <col min="5" max="5" width="17.140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="35">
+      <c r="A2" s="30">
         <v>40179</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="31">
         <v>20100101</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="19">
-        <v>1</v>
-      </c>
-      <c r="G2" s="19">
-        <v>1</v>
-      </c>
-      <c r="H2" s="19">
-        <v>1</v>
-      </c>
-      <c r="I2" s="19">
+      <c r="F2" s="17">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17">
+        <v>1</v>
+      </c>
+      <c r="I2" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="35">
+      <c r="A3" s="30">
         <v>40196</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="31">
         <v>20100118</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="19">
-        <v>1</v>
-      </c>
-      <c r="G3" s="19">
-        <v>1</v>
-      </c>
-      <c r="H3" s="19">
-        <v>1</v>
-      </c>
-      <c r="I3" s="19">
+      <c r="F3" s="17">
+        <v>1</v>
+      </c>
+      <c r="G3" s="17">
+        <v>1</v>
+      </c>
+      <c r="H3" s="17">
+        <v>1</v>
+      </c>
+      <c r="I3" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="35">
+      <c r="A4" s="30">
         <v>40224</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="31">
         <v>20100215</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="19">
-        <v>1</v>
-      </c>
-      <c r="G4" s="19">
-        <v>1</v>
-      </c>
-      <c r="H4" s="19">
-        <v>1</v>
-      </c>
-      <c r="I4" s="19">
+      <c r="F4" s="17">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17">
+        <v>1</v>
+      </c>
+      <c r="H4" s="17">
+        <v>1</v>
+      </c>
+      <c r="I4" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
+      <c r="A5" s="30">
         <v>40270</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="31">
         <v>20100402</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0</v>
-      </c>
-      <c r="H5" s="19">
-        <v>1</v>
-      </c>
-      <c r="I5" s="19">
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1</v>
+      </c>
+      <c r="I5" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="35">
+      <c r="A6" s="30">
         <v>40329</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="31">
         <v>20100531</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="19">
-        <v>1</v>
-      </c>
-      <c r="G6" s="19">
-        <v>1</v>
-      </c>
-      <c r="H6" s="19">
-        <v>1</v>
-      </c>
-      <c r="I6" s="19">
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1</v>
+      </c>
+      <c r="I6" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="37">
+      <c r="A7" s="32">
         <v>40363</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="33">
         <v>20100704</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="40">
-        <v>1</v>
-      </c>
-      <c r="G7" s="40">
-        <v>0</v>
-      </c>
-      <c r="H7" s="40">
-        <v>0</v>
-      </c>
-      <c r="I7" s="40">
+      <c r="F7" s="35">
+        <v>1</v>
+      </c>
+      <c r="G7" s="35">
+        <v>0</v>
+      </c>
+      <c r="H7" s="35">
+        <v>0</v>
+      </c>
+      <c r="I7" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="35">
+      <c r="A8" s="30">
         <v>40364</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="31">
         <v>20100705</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="19">
-        <v>1</v>
-      </c>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="19">
-        <v>1</v>
-      </c>
-      <c r="I8" s="19">
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1</v>
+      </c>
+      <c r="I8" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="35">
+      <c r="A9" s="30">
         <v>40427</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="31">
         <v>20100906</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19">
-        <v>1</v>
-      </c>
-      <c r="I9" s="19">
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1</v>
+      </c>
+      <c r="I9" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="35">
+      <c r="A10" s="30">
         <v>40462</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="31">
         <v>20101011</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="19">
-        <v>1</v>
-      </c>
-      <c r="G10" s="19">
-        <v>1</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0</v>
-      </c>
-      <c r="I10" s="19">
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="35">
+      <c r="A11" s="30">
         <v>40493</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="31">
         <v>20101111</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="19">
-        <v>1</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0</v>
-      </c>
-      <c r="I11" s="19">
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="35">
+      <c r="A12" s="30">
         <v>40507</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="31">
         <v>20101125</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="19">
-        <v>1</v>
-      </c>
-      <c r="G12" s="19">
-        <v>1</v>
-      </c>
-      <c r="H12" s="19">
-        <v>1</v>
-      </c>
-      <c r="I12" s="19">
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17">
+        <v>1</v>
+      </c>
+      <c r="I12" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="35">
+      <c r="A13" s="30">
         <v>40536</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="31">
         <v>20101224</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-      <c r="G13" s="19">
-        <v>0</v>
-      </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="19">
+      <c r="F13" s="17">
+        <v>1</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="17">
+        <v>1</v>
+      </c>
+      <c r="I13" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="37">
+      <c r="A14" s="32">
         <v>40537</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="33">
         <v>20101225</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="40">
-        <v>1</v>
-      </c>
-      <c r="G14" s="40">
-        <v>0</v>
-      </c>
-      <c r="H14" s="40">
-        <v>0</v>
-      </c>
-      <c r="I14" s="40">
+      <c r="F14" s="35">
+        <v>1</v>
+      </c>
+      <c r="G14" s="35">
+        <v>0</v>
+      </c>
+      <c r="H14" s="35">
+        <v>0</v>
+      </c>
+      <c r="I14" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="35">
+      <c r="A15" s="30">
         <v>40543</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="31">
         <v>20101231</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="19">
-        <v>1</v>
-      </c>
-      <c r="G15" s="19">
-        <v>0</v>
-      </c>
-      <c r="H15" s="19">
-        <v>0</v>
-      </c>
-      <c r="I15" s="19">
+      <c r="F15" s="17">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="37">
+      <c r="A16" s="32">
         <v>40544</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="33">
         <v>20110101</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="40">
-        <v>1</v>
-      </c>
-      <c r="G16" s="40">
-        <v>0</v>
-      </c>
-      <c r="H16" s="40">
-        <v>0</v>
-      </c>
-      <c r="I16" s="40">
+      <c r="F16" s="35">
+        <v>1</v>
+      </c>
+      <c r="G16" s="35">
+        <v>0</v>
+      </c>
+      <c r="H16" s="35">
+        <v>0</v>
+      </c>
+      <c r="I16" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="35">
+      <c r="A17" s="30">
         <v>40560</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="31">
         <v>20110117</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1</v>
-      </c>
-      <c r="I17" s="19">
+      <c r="F17" s="17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="35">
+      <c r="A18" s="30">
         <v>40595</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="31">
         <v>20110221</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="19">
-        <v>1</v>
-      </c>
-      <c r="G18" s="19">
-        <v>1</v>
-      </c>
-      <c r="H18" s="19">
-        <v>1</v>
-      </c>
-      <c r="I18" s="19">
+      <c r="F18" s="17">
+        <v>1</v>
+      </c>
+      <c r="G18" s="17">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17">
+        <v>1</v>
+      </c>
+      <c r="I18" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="35">
+      <c r="A19" s="30">
         <v>40655</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="31">
         <v>20110422</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="19">
+      <c r="F19" s="17">
+        <v>1</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <v>1</v>
+      </c>
+      <c r="I19" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="35">
+      <c r="A20" s="30">
         <v>40693</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="31">
         <v>20110530</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="C20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="19">
-        <v>1</v>
-      </c>
-      <c r="G20" s="19">
-        <v>1</v>
-      </c>
-      <c r="H20" s="19">
-        <v>1</v>
-      </c>
-      <c r="I20" s="19">
+      <c r="F20" s="17">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1</v>
+      </c>
+      <c r="I20" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="35">
+      <c r="A21" s="30">
         <v>40728</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="31">
         <v>20110704</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="19">
-        <v>1</v>
-      </c>
-      <c r="G21" s="19">
-        <v>1</v>
-      </c>
-      <c r="H21" s="19">
-        <v>1</v>
-      </c>
-      <c r="I21" s="19">
+      <c r="F21" s="17">
+        <v>1</v>
+      </c>
+      <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21" s="17">
+        <v>1</v>
+      </c>
+      <c r="I21" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="35">
+      <c r="A22" s="30">
         <v>40791</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="31">
         <v>20110905</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="19">
-        <v>1</v>
-      </c>
-      <c r="G22" s="19">
-        <v>1</v>
-      </c>
-      <c r="H22" s="19">
-        <v>1</v>
-      </c>
-      <c r="I22" s="19">
+      <c r="F22" s="17">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17">
+        <v>1</v>
+      </c>
+      <c r="H22" s="17">
+        <v>1</v>
+      </c>
+      <c r="I22" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="35">
+      <c r="A23" s="30">
         <v>40826</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="31">
         <v>20111010</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="19">
-        <v>1</v>
-      </c>
-      <c r="G23" s="19">
-        <v>1</v>
-      </c>
-      <c r="H23" s="19">
-        <v>0</v>
-      </c>
-      <c r="I23" s="19">
+      <c r="F23" s="17">
+        <v>1</v>
+      </c>
+      <c r="G23" s="17">
+        <v>1</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="35">
+      <c r="A24" s="30">
         <v>40858</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="31">
         <v>20111111</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="19">
-        <v>1</v>
-      </c>
-      <c r="G24" s="19">
-        <v>1</v>
-      </c>
-      <c r="H24" s="19">
-        <v>0</v>
-      </c>
-      <c r="I24" s="19">
+      <c r="F24" s="17">
+        <v>1</v>
+      </c>
+      <c r="G24" s="17">
+        <v>1</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0</v>
+      </c>
+      <c r="I24" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="35">
+      <c r="A25" s="30">
         <v>40871</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="31">
         <v>20111124</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="19">
-        <v>1</v>
-      </c>
-      <c r="G25" s="19">
-        <v>1</v>
-      </c>
-      <c r="H25" s="19">
-        <v>1</v>
-      </c>
-      <c r="I25" s="19">
+      <c r="F25" s="17">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17">
+        <v>1</v>
+      </c>
+      <c r="H25" s="17">
+        <v>1</v>
+      </c>
+      <c r="I25" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="37">
+      <c r="A26" s="32">
         <v>40902</v>
       </c>
-      <c r="B26" s="38">
+      <c r="B26" s="33">
         <v>20111225</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="40">
-        <v>1</v>
-      </c>
-      <c r="G26" s="40">
-        <v>0</v>
-      </c>
-      <c r="H26" s="40">
-        <v>0</v>
-      </c>
-      <c r="I26" s="40">
+      <c r="F26" s="35">
+        <v>1</v>
+      </c>
+      <c r="G26" s="35">
+        <v>0</v>
+      </c>
+      <c r="H26" s="35">
+        <v>0</v>
+      </c>
+      <c r="I26" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="35">
+      <c r="A27" s="30">
         <v>40903</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="31">
         <v>20111226</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="13" t="s">
+      <c r="D27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="19">
-        <v>1</v>
-      </c>
-      <c r="G27" s="19">
-        <v>1</v>
-      </c>
-      <c r="H27" s="19">
-        <v>1</v>
-      </c>
-      <c r="I27" s="19">
+      <c r="F27" s="17">
+        <v>1</v>
+      </c>
+      <c r="G27" s="17">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17">
+        <v>1</v>
+      </c>
+      <c r="I27" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="37">
+      <c r="A28" s="32">
         <v>40909</v>
       </c>
-      <c r="B28" s="38">
+      <c r="B28" s="33">
         <v>20120101</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="40">
-        <v>1</v>
-      </c>
-      <c r="G28" s="40">
-        <v>0</v>
-      </c>
-      <c r="H28" s="40">
-        <v>0</v>
-      </c>
-      <c r="I28" s="40">
+      <c r="F28" s="35">
+        <v>1</v>
+      </c>
+      <c r="G28" s="35">
+        <v>0</v>
+      </c>
+      <c r="H28" s="35">
+        <v>0</v>
+      </c>
+      <c r="I28" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="35">
+      <c r="A29" s="30">
         <v>40910</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="31">
         <v>20120102</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="13" t="s">
+      <c r="D29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="19">
-        <v>1</v>
-      </c>
-      <c r="G29" s="19">
-        <v>1</v>
-      </c>
-      <c r="H29" s="19">
-        <v>1</v>
-      </c>
-      <c r="I29" s="19">
+      <c r="F29" s="17">
+        <v>1</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1</v>
+      </c>
+      <c r="H29" s="17">
+        <v>1</v>
+      </c>
+      <c r="I29" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="35">
+      <c r="A30" s="30">
         <v>40924</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="31">
         <v>20120116</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="13" t="s">
+      <c r="D30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="19">
-        <v>1</v>
-      </c>
-      <c r="G30" s="19">
-        <v>1</v>
-      </c>
-      <c r="H30" s="19">
-        <v>1</v>
-      </c>
-      <c r="I30" s="19">
+      <c r="F30" s="17">
+        <v>1</v>
+      </c>
+      <c r="G30" s="17">
+        <v>1</v>
+      </c>
+      <c r="H30" s="17">
+        <v>1</v>
+      </c>
+      <c r="I30" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="35">
+      <c r="A31" s="30">
         <v>40959</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="31">
         <v>20120220</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="13" t="s">
+      <c r="D31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="19">
-        <v>1</v>
-      </c>
-      <c r="G31" s="19">
-        <v>1</v>
-      </c>
-      <c r="H31" s="19">
-        <v>1</v>
-      </c>
-      <c r="I31" s="19">
+      <c r="F31" s="17">
+        <v>1</v>
+      </c>
+      <c r="G31" s="17">
+        <v>1</v>
+      </c>
+      <c r="H31" s="17">
+        <v>1</v>
+      </c>
+      <c r="I31" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="35">
+      <c r="A32" s="30">
         <v>41005</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="31">
         <v>20120406</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="19">
-        <v>1</v>
-      </c>
-      <c r="G32" s="19">
-        <v>0</v>
-      </c>
-      <c r="H32" s="19">
-        <v>1</v>
-      </c>
-      <c r="I32" s="19">
+      <c r="F32" s="17">
+        <v>1</v>
+      </c>
+      <c r="G32" s="17">
+        <v>0</v>
+      </c>
+      <c r="H32" s="17">
+        <v>1</v>
+      </c>
+      <c r="I32" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="35">
+      <c r="A33" s="30">
         <v>41057</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="31">
         <v>20120528</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="13" t="s">
+      <c r="C33" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="19">
-        <v>1</v>
-      </c>
-      <c r="G33" s="19">
-        <v>1</v>
-      </c>
-      <c r="H33" s="19">
-        <v>1</v>
-      </c>
-      <c r="I33" s="19">
+      <c r="F33" s="17">
+        <v>1</v>
+      </c>
+      <c r="G33" s="17">
+        <v>1</v>
+      </c>
+      <c r="H33" s="17">
+        <v>1</v>
+      </c>
+      <c r="I33" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="35">
+      <c r="A34" s="30">
         <v>41094</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="31">
         <v>20120704</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="19">
-        <v>1</v>
-      </c>
-      <c r="G34" s="19">
-        <v>1</v>
-      </c>
-      <c r="H34" s="19">
-        <v>1</v>
-      </c>
-      <c r="I34" s="19">
+      <c r="F34" s="17">
+        <v>1</v>
+      </c>
+      <c r="G34" s="17">
+        <v>1</v>
+      </c>
+      <c r="H34" s="17">
+        <v>1</v>
+      </c>
+      <c r="I34" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="35">
+      <c r="A35" s="30">
         <v>41155</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="31">
         <v>20120903</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="13" t="s">
+      <c r="D35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="19">
-        <v>1</v>
-      </c>
-      <c r="G35" s="19">
-        <v>1</v>
-      </c>
-      <c r="H35" s="19">
-        <v>1</v>
-      </c>
-      <c r="I35" s="19">
+      <c r="F35" s="17">
+        <v>1</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1</v>
+      </c>
+      <c r="H35" s="17">
+        <v>1</v>
+      </c>
+      <c r="I35" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="35">
+      <c r="A36" s="30">
         <v>41190</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="31">
         <v>20121008</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="13" t="s">
+      <c r="D36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="19">
-        <v>1</v>
-      </c>
-      <c r="G36" s="19">
-        <v>1</v>
-      </c>
-      <c r="H36" s="19">
-        <v>0</v>
-      </c>
-      <c r="I36" s="19">
+      <c r="F36" s="17">
+        <v>1</v>
+      </c>
+      <c r="G36" s="17">
+        <v>1</v>
+      </c>
+      <c r="H36" s="17">
+        <v>0</v>
+      </c>
+      <c r="I36" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="37">
+      <c r="A37" s="32">
         <v>41224</v>
       </c>
-      <c r="B37" s="38">
+      <c r="B37" s="33">
         <v>20121111</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="40">
-        <v>1</v>
-      </c>
-      <c r="G37" s="40">
-        <v>0</v>
-      </c>
-      <c r="H37" s="40">
-        <v>0</v>
-      </c>
-      <c r="I37" s="40">
+      <c r="F37" s="35">
+        <v>1</v>
+      </c>
+      <c r="G37" s="35">
+        <v>0</v>
+      </c>
+      <c r="H37" s="35">
+        <v>0</v>
+      </c>
+      <c r="I37" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="35">
+      <c r="A38" s="30">
         <v>41225</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="31">
         <v>20121112</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="13" t="s">
+      <c r="D38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="19">
-        <v>1</v>
-      </c>
-      <c r="G38" s="19">
-        <v>1</v>
-      </c>
-      <c r="H38" s="19">
-        <v>0</v>
-      </c>
-      <c r="I38" s="19">
+      <c r="F38" s="17">
+        <v>1</v>
+      </c>
+      <c r="G38" s="17">
+        <v>1</v>
+      </c>
+      <c r="H38" s="17">
+        <v>0</v>
+      </c>
+      <c r="I38" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="35">
+      <c r="A39" s="30">
         <v>41235</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="31">
         <v>20121122</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="19">
-        <v>1</v>
-      </c>
-      <c r="G39" s="19">
-        <v>1</v>
-      </c>
-      <c r="H39" s="19">
-        <v>1</v>
-      </c>
-      <c r="I39" s="19">
+      <c r="F39" s="17">
+        <v>1</v>
+      </c>
+      <c r="G39" s="17">
+        <v>1</v>
+      </c>
+      <c r="H39" s="17">
+        <v>1</v>
+      </c>
+      <c r="I39" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="35">
+      <c r="A40" s="30">
         <v>41268</v>
       </c>
-      <c r="B40" s="36">
+      <c r="B40" s="31">
         <v>20121225</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="19">
-        <v>1</v>
-      </c>
-      <c r="G40" s="19">
-        <v>1</v>
-      </c>
-      <c r="H40" s="19">
-        <v>1</v>
-      </c>
-      <c r="I40" s="19">
+      <c r="F40" s="17">
+        <v>1</v>
+      </c>
+      <c r="G40" s="17">
+        <v>1</v>
+      </c>
+      <c r="H40" s="17">
+        <v>1</v>
+      </c>
+      <c r="I40" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="35">
+      <c r="A41" s="30">
         <v>41275</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="31">
         <v>20130101</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F41" s="19">
-        <v>1</v>
-      </c>
-      <c r="G41" s="19">
-        <v>1</v>
-      </c>
-      <c r="H41" s="19">
-        <v>1</v>
-      </c>
-      <c r="I41" s="19">
+      <c r="F41" s="17">
+        <v>1</v>
+      </c>
+      <c r="G41" s="17">
+        <v>1</v>
+      </c>
+      <c r="H41" s="17">
+        <v>1</v>
+      </c>
+      <c r="I41" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="35">
+      <c r="A42" s="30">
         <v>41295</v>
       </c>
-      <c r="B42" s="36">
+      <c r="B42" s="31">
         <v>20130121</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="13" t="s">
+      <c r="D42" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="19">
-        <v>1</v>
-      </c>
-      <c r="G42" s="19">
-        <v>1</v>
-      </c>
-      <c r="H42" s="19">
-        <v>1</v>
-      </c>
-      <c r="I42" s="19">
+      <c r="F42" s="17">
+        <v>1</v>
+      </c>
+      <c r="G42" s="17">
+        <v>1</v>
+      </c>
+      <c r="H42" s="17">
+        <v>1</v>
+      </c>
+      <c r="I42" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="35">
+      <c r="A43" s="30">
         <v>41323</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="31">
         <v>20130218</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="13" t="s">
+      <c r="D43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F43" s="19">
-        <v>1</v>
-      </c>
-      <c r="G43" s="19">
-        <v>1</v>
-      </c>
-      <c r="H43" s="19">
-        <v>1</v>
-      </c>
-      <c r="I43" s="19">
+      <c r="F43" s="17">
+        <v>1</v>
+      </c>
+      <c r="G43" s="17">
+        <v>1</v>
+      </c>
+      <c r="H43" s="17">
+        <v>1</v>
+      </c>
+      <c r="I43" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="35">
+      <c r="A44" s="30">
         <v>41362</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="31">
         <v>20130329</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="13" t="s">
+      <c r="C44" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="19">
-        <v>1</v>
-      </c>
-      <c r="G44" s="19">
-        <v>0</v>
-      </c>
-      <c r="H44" s="19">
-        <v>1</v>
-      </c>
-      <c r="I44" s="19">
+      <c r="F44" s="17">
+        <v>1</v>
+      </c>
+      <c r="G44" s="17">
+        <v>0</v>
+      </c>
+      <c r="H44" s="17">
+        <v>1</v>
+      </c>
+      <c r="I44" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="35">
+      <c r="A45" s="30">
         <v>41421</v>
       </c>
-      <c r="B45" s="36">
+      <c r="B45" s="31">
         <v>20130527</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="13" t="s">
+      <c r="C45" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F45" s="19">
-        <v>1</v>
-      </c>
-      <c r="G45" s="19">
-        <v>1</v>
-      </c>
-      <c r="H45" s="19">
-        <v>1</v>
-      </c>
-      <c r="I45" s="19">
+      <c r="F45" s="17">
+        <v>1</v>
+      </c>
+      <c r="G45" s="17">
+        <v>1</v>
+      </c>
+      <c r="H45" s="17">
+        <v>1</v>
+      </c>
+      <c r="I45" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="35">
+      <c r="A46" s="30">
         <v>41459</v>
       </c>
-      <c r="B46" s="36">
+      <c r="B46" s="31">
         <v>20130704</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="19">
-        <v>1</v>
-      </c>
-      <c r="G46" s="19">
-        <v>1</v>
-      </c>
-      <c r="H46" s="19">
-        <v>1</v>
-      </c>
-      <c r="I46" s="19">
+      <c r="F46" s="17">
+        <v>1</v>
+      </c>
+      <c r="G46" s="17">
+        <v>1</v>
+      </c>
+      <c r="H46" s="17">
+        <v>1</v>
+      </c>
+      <c r="I46" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="35">
+      <c r="A47" s="30">
         <v>41519</v>
       </c>
-      <c r="B47" s="36">
+      <c r="B47" s="31">
         <v>20130902</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="13" t="s">
+      <c r="D47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="19">
-        <v>1</v>
-      </c>
-      <c r="G47" s="19">
-        <v>1</v>
-      </c>
-      <c r="H47" s="19">
-        <v>1</v>
-      </c>
-      <c r="I47" s="19">
+      <c r="F47" s="17">
+        <v>1</v>
+      </c>
+      <c r="G47" s="17">
+        <v>1</v>
+      </c>
+      <c r="H47" s="17">
+        <v>1</v>
+      </c>
+      <c r="I47" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="35">
+      <c r="A48" s="30">
         <v>41561</v>
       </c>
-      <c r="B48" s="36">
+      <c r="B48" s="31">
         <v>20131014</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="13" t="s">
+      <c r="D48" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="19">
-        <v>1</v>
-      </c>
-      <c r="G48" s="19">
-        <v>1</v>
-      </c>
-      <c r="H48" s="19">
-        <v>0</v>
-      </c>
-      <c r="I48" s="19">
+      <c r="F48" s="17">
+        <v>1</v>
+      </c>
+      <c r="G48" s="17">
+        <v>1</v>
+      </c>
+      <c r="H48" s="17">
+        <v>0</v>
+      </c>
+      <c r="I48" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="35">
+      <c r="A49" s="30">
         <v>41589</v>
       </c>
-      <c r="B49" s="36">
+      <c r="B49" s="31">
         <v>20131111</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="13" t="s">
+      <c r="D49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F49" s="19">
-        <v>1</v>
-      </c>
-      <c r="G49" s="19">
-        <v>1</v>
-      </c>
-      <c r="H49" s="19">
-        <v>0</v>
-      </c>
-      <c r="I49" s="19">
+      <c r="F49" s="17">
+        <v>1</v>
+      </c>
+      <c r="G49" s="17">
+        <v>1</v>
+      </c>
+      <c r="H49" s="17">
+        <v>0</v>
+      </c>
+      <c r="I49" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="35">
+      <c r="A50" s="30">
         <v>41606</v>
       </c>
-      <c r="B50" s="36">
+      <c r="B50" s="31">
         <v>20131128</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="19">
-        <v>1</v>
-      </c>
-      <c r="G50" s="19">
-        <v>1</v>
-      </c>
-      <c r="H50" s="19">
-        <v>1</v>
-      </c>
-      <c r="I50" s="19">
+      <c r="F50" s="17">
+        <v>1</v>
+      </c>
+      <c r="G50" s="17">
+        <v>1</v>
+      </c>
+      <c r="H50" s="17">
+        <v>1</v>
+      </c>
+      <c r="I50" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="35">
+      <c r="A51" s="30">
         <v>41633</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="31">
         <v>20131225</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F51" s="19">
-        <v>1</v>
-      </c>
-      <c r="G51" s="19">
-        <v>1</v>
-      </c>
-      <c r="H51" s="19">
-        <v>1</v>
-      </c>
-      <c r="I51" s="19">
+      <c r="F51" s="17">
+        <v>1</v>
+      </c>
+      <c r="G51" s="17">
+        <v>1</v>
+      </c>
+      <c r="H51" s="17">
+        <v>1</v>
+      </c>
+      <c r="I51" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="35">
+      <c r="A52" s="30">
         <v>41640</v>
       </c>
-      <c r="B52" s="36">
+      <c r="B52" s="31">
         <v>20140101</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F52" s="19">
-        <v>1</v>
-      </c>
-      <c r="G52" s="19">
-        <v>1</v>
-      </c>
-      <c r="H52" s="19">
-        <v>1</v>
-      </c>
-      <c r="I52" s="19">
+      <c r="F52" s="17">
+        <v>1</v>
+      </c>
+      <c r="G52" s="17">
+        <v>1</v>
+      </c>
+      <c r="H52" s="17">
+        <v>1</v>
+      </c>
+      <c r="I52" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="35">
+      <c r="A53" s="30">
         <v>41659</v>
       </c>
-      <c r="B53" s="36">
+      <c r="B53" s="31">
         <v>20140120</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="13" t="s">
+      <c r="D53" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F53" s="19">
-        <v>1</v>
-      </c>
-      <c r="G53" s="19">
-        <v>1</v>
-      </c>
-      <c r="H53" s="19">
-        <v>1</v>
-      </c>
-      <c r="I53" s="19">
+      <c r="F53" s="17">
+        <v>1</v>
+      </c>
+      <c r="G53" s="17">
+        <v>1</v>
+      </c>
+      <c r="H53" s="17">
+        <v>1</v>
+      </c>
+      <c r="I53" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="35">
+      <c r="A54" s="30">
         <v>41687</v>
       </c>
-      <c r="B54" s="36">
+      <c r="B54" s="31">
         <v>20140217</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="13" t="s">
+      <c r="D54" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F54" s="19">
-        <v>1</v>
-      </c>
-      <c r="G54" s="19">
-        <v>1</v>
-      </c>
-      <c r="H54" s="19">
-        <v>1</v>
-      </c>
-      <c r="I54" s="19">
+      <c r="F54" s="17">
+        <v>1</v>
+      </c>
+      <c r="G54" s="17">
+        <v>1</v>
+      </c>
+      <c r="H54" s="17">
+        <v>1</v>
+      </c>
+      <c r="I54" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="35">
+      <c r="A55" s="30">
         <v>41747</v>
       </c>
-      <c r="B55" s="36">
+      <c r="B55" s="31">
         <v>20140418</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="13" t="s">
+      <c r="C55" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F55" s="19">
-        <v>1</v>
-      </c>
-      <c r="G55" s="19">
-        <v>0</v>
-      </c>
-      <c r="H55" s="19">
-        <v>1</v>
-      </c>
-      <c r="I55" s="19">
+      <c r="F55" s="17">
+        <v>1</v>
+      </c>
+      <c r="G55" s="17">
+        <v>0</v>
+      </c>
+      <c r="H55" s="17">
+        <v>1</v>
+      </c>
+      <c r="I55" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="35">
+      <c r="A56" s="30">
         <v>41785</v>
       </c>
-      <c r="B56" s="36">
+      <c r="B56" s="31">
         <v>20140526</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="13" t="s">
+      <c r="C56" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F56" s="19">
-        <v>1</v>
-      </c>
-      <c r="G56" s="19">
-        <v>1</v>
-      </c>
-      <c r="H56" s="19">
-        <v>1</v>
-      </c>
-      <c r="I56" s="19">
+      <c r="F56" s="17">
+        <v>1</v>
+      </c>
+      <c r="G56" s="17">
+        <v>1</v>
+      </c>
+      <c r="H56" s="17">
+        <v>1</v>
+      </c>
+      <c r="I56" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="35">
+      <c r="A57" s="30">
         <v>41824</v>
       </c>
-      <c r="B57" s="36">
+      <c r="B57" s="31">
         <v>20140704</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="19">
-        <v>1</v>
-      </c>
-      <c r="G57" s="19">
-        <v>1</v>
-      </c>
-      <c r="H57" s="19">
-        <v>1</v>
-      </c>
-      <c r="I57" s="19">
+      <c r="F57" s="17">
+        <v>1</v>
+      </c>
+      <c r="G57" s="17">
+        <v>1</v>
+      </c>
+      <c r="H57" s="17">
+        <v>1</v>
+      </c>
+      <c r="I57" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="35">
+      <c r="A58" s="30">
         <v>41883</v>
       </c>
-      <c r="B58" s="36">
+      <c r="B58" s="31">
         <v>20140901</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="13" t="s">
+      <c r="D58" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F58" s="19">
-        <v>1</v>
-      </c>
-      <c r="G58" s="19">
-        <v>1</v>
-      </c>
-      <c r="H58" s="19">
-        <v>1</v>
-      </c>
-      <c r="I58" s="19">
+      <c r="F58" s="17">
+        <v>1</v>
+      </c>
+      <c r="G58" s="17">
+        <v>1</v>
+      </c>
+      <c r="H58" s="17">
+        <v>1</v>
+      </c>
+      <c r="I58" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="35">
+      <c r="A59" s="30">
         <v>41925</v>
       </c>
-      <c r="B59" s="36">
+      <c r="B59" s="31">
         <v>20141013</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="13" t="s">
+      <c r="D59" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F59" s="19">
-        <v>1</v>
-      </c>
-      <c r="G59" s="19">
-        <v>1</v>
-      </c>
-      <c r="H59" s="19">
-        <v>0</v>
-      </c>
-      <c r="I59" s="19">
+      <c r="F59" s="17">
+        <v>1</v>
+      </c>
+      <c r="G59" s="17">
+        <v>1</v>
+      </c>
+      <c r="H59" s="17">
+        <v>0</v>
+      </c>
+      <c r="I59" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="35">
+      <c r="A60" s="30">
         <v>41954</v>
       </c>
-      <c r="B60" s="36">
+      <c r="B60" s="31">
         <v>20141111</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F60" s="19">
-        <v>1</v>
-      </c>
-      <c r="G60" s="19">
-        <v>1</v>
-      </c>
-      <c r="H60" s="19">
-        <v>0</v>
-      </c>
-      <c r="I60" s="19">
+      <c r="F60" s="17">
+        <v>1</v>
+      </c>
+      <c r="G60" s="17">
+        <v>1</v>
+      </c>
+      <c r="H60" s="17">
+        <v>0</v>
+      </c>
+      <c r="I60" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="35">
+      <c r="A61" s="30">
         <v>41970</v>
       </c>
-      <c r="B61" s="36">
+      <c r="B61" s="31">
         <v>20141127</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F61" s="19">
-        <v>1</v>
-      </c>
-      <c r="G61" s="19">
-        <v>1</v>
-      </c>
-      <c r="H61" s="19">
-        <v>1</v>
-      </c>
-      <c r="I61" s="19">
+      <c r="F61" s="17">
+        <v>1</v>
+      </c>
+      <c r="G61" s="17">
+        <v>1</v>
+      </c>
+      <c r="H61" s="17">
+        <v>1</v>
+      </c>
+      <c r="I61" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="35">
+      <c r="A62" s="30">
         <v>41998</v>
       </c>
-      <c r="B62" s="36">
+      <c r="B62" s="31">
         <v>20141225</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="19">
-        <v>1</v>
-      </c>
-      <c r="G62" s="19">
-        <v>1</v>
-      </c>
-      <c r="H62" s="19">
-        <v>1</v>
-      </c>
-      <c r="I62" s="19">
+      <c r="F62" s="17">
+        <v>1</v>
+      </c>
+      <c r="G62" s="17">
+        <v>1</v>
+      </c>
+      <c r="H62" s="17">
+        <v>1</v>
+      </c>
+      <c r="I62" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="35">
+      <c r="A63" s="30">
         <v>42005</v>
       </c>
-      <c r="B63" s="36">
+      <c r="B63" s="31">
         <v>20150101</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F63" s="19">
-        <v>1</v>
-      </c>
-      <c r="G63" s="19">
-        <v>1</v>
-      </c>
-      <c r="H63" s="19">
-        <v>1</v>
-      </c>
-      <c r="I63" s="19">
+      <c r="F63" s="17">
+        <v>1</v>
+      </c>
+      <c r="G63" s="17">
+        <v>1</v>
+      </c>
+      <c r="H63" s="17">
+        <v>1</v>
+      </c>
+      <c r="I63" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="35">
+      <c r="A64" s="30">
         <v>42023</v>
       </c>
-      <c r="B64" s="36">
+      <c r="B64" s="31">
         <v>20150119</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="13" t="s">
+      <c r="D64" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F64" s="19">
-        <v>1</v>
-      </c>
-      <c r="G64" s="19">
-        <v>1</v>
-      </c>
-      <c r="H64" s="19">
-        <v>1</v>
-      </c>
-      <c r="I64" s="19">
+      <c r="F64" s="17">
+        <v>1</v>
+      </c>
+      <c r="G64" s="17">
+        <v>1</v>
+      </c>
+      <c r="H64" s="17">
+        <v>1</v>
+      </c>
+      <c r="I64" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="35">
+      <c r="A65" s="30">
         <v>42051</v>
       </c>
-      <c r="B65" s="36">
+      <c r="B65" s="31">
         <v>20150216</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="13" t="s">
+      <c r="D65" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F65" s="19">
-        <v>1</v>
-      </c>
-      <c r="G65" s="19">
-        <v>1</v>
-      </c>
-      <c r="H65" s="19">
-        <v>1</v>
-      </c>
-      <c r="I65" s="19">
+      <c r="F65" s="17">
+        <v>1</v>
+      </c>
+      <c r="G65" s="17">
+        <v>1</v>
+      </c>
+      <c r="H65" s="17">
+        <v>1</v>
+      </c>
+      <c r="I65" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="35">
+      <c r="A66" s="30">
         <v>42097</v>
       </c>
-      <c r="B66" s="36">
+      <c r="B66" s="31">
         <v>20150403</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="13" t="s">
+      <c r="C66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F66" s="19">
-        <v>1</v>
-      </c>
-      <c r="G66" s="19">
-        <v>0</v>
-      </c>
-      <c r="H66" s="19">
-        <v>1</v>
-      </c>
-      <c r="I66" s="19">
+      <c r="F66" s="17">
+        <v>1</v>
+      </c>
+      <c r="G66" s="17">
+        <v>0</v>
+      </c>
+      <c r="H66" s="17">
+        <v>1</v>
+      </c>
+      <c r="I66" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="35">
+      <c r="A67" s="30">
         <v>42149</v>
       </c>
-      <c r="B67" s="36">
+      <c r="B67" s="31">
         <v>20150525</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="13" t="s">
+      <c r="C67" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F67" s="19">
-        <v>1</v>
-      </c>
-      <c r="G67" s="19">
-        <v>1</v>
-      </c>
-      <c r="H67" s="19">
-        <v>1</v>
-      </c>
-      <c r="I67" s="19">
+      <c r="F67" s="17">
+        <v>1</v>
+      </c>
+      <c r="G67" s="17">
+        <v>1</v>
+      </c>
+      <c r="H67" s="17">
+        <v>1</v>
+      </c>
+      <c r="I67" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="35">
+      <c r="A68" s="30">
         <v>42188</v>
       </c>
-      <c r="B68" s="36">
+      <c r="B68" s="31">
         <v>20150703</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="E68" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F68" s="19">
-        <v>1</v>
-      </c>
-      <c r="G68" s="19">
-        <v>0</v>
-      </c>
-      <c r="H68" s="19">
-        <v>1</v>
-      </c>
-      <c r="I68" s="19">
+      <c r="F68" s="17">
+        <v>1</v>
+      </c>
+      <c r="G68" s="17">
+        <v>0</v>
+      </c>
+      <c r="H68" s="17">
+        <v>1</v>
+      </c>
+      <c r="I68" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="37">
+      <c r="A69" s="32">
         <v>42189</v>
       </c>
-      <c r="B69" s="38">
+      <c r="B69" s="33">
         <v>20150704</v>
       </c>
-      <c r="C69" s="39" t="s">
+      <c r="C69" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="39" t="s">
+      <c r="D69" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="39" t="s">
+      <c r="E69" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="F69" s="40">
-        <v>1</v>
-      </c>
-      <c r="G69" s="40">
-        <v>0</v>
-      </c>
-      <c r="H69" s="40">
-        <v>0</v>
-      </c>
-      <c r="I69" s="40">
+      <c r="F69" s="35">
+        <v>1</v>
+      </c>
+      <c r="G69" s="35">
+        <v>0</v>
+      </c>
+      <c r="H69" s="35">
+        <v>0</v>
+      </c>
+      <c r="I69" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="35">
+      <c r="A70" s="30">
         <v>42254</v>
       </c>
-      <c r="B70" s="36">
+      <c r="B70" s="31">
         <v>20150907</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="13" t="s">
+      <c r="D70" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F70" s="19">
-        <v>1</v>
-      </c>
-      <c r="G70" s="19">
-        <v>1</v>
-      </c>
-      <c r="H70" s="19">
-        <v>1</v>
-      </c>
-      <c r="I70" s="19">
+      <c r="F70" s="17">
+        <v>1</v>
+      </c>
+      <c r="G70" s="17">
+        <v>1</v>
+      </c>
+      <c r="H70" s="17">
+        <v>1</v>
+      </c>
+      <c r="I70" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="35">
+      <c r="A71" s="30">
         <v>42289</v>
       </c>
-      <c r="B71" s="36">
+      <c r="B71" s="31">
         <v>20151012</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="13" t="s">
+      <c r="D71" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F71" s="19">
-        <v>1</v>
-      </c>
-      <c r="G71" s="19">
-        <v>1</v>
-      </c>
-      <c r="H71" s="19">
-        <v>0</v>
-      </c>
-      <c r="I71" s="19">
+      <c r="F71" s="17">
+        <v>1</v>
+      </c>
+      <c r="G71" s="17">
+        <v>1</v>
+      </c>
+      <c r="H71" s="17">
+        <v>0</v>
+      </c>
+      <c r="I71" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="35">
+      <c r="A72" s="30">
         <v>42319</v>
       </c>
-      <c r="B72" s="36">
+      <c r="B72" s="31">
         <v>20151111</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E72" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F72" s="19">
-        <v>1</v>
-      </c>
-      <c r="G72" s="19">
-        <v>1</v>
-      </c>
-      <c r="H72" s="19">
-        <v>0</v>
-      </c>
-      <c r="I72" s="19">
+      <c r="F72" s="17">
+        <v>1</v>
+      </c>
+      <c r="G72" s="17">
+        <v>1</v>
+      </c>
+      <c r="H72" s="17">
+        <v>0</v>
+      </c>
+      <c r="I72" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="35">
+      <c r="A73" s="30">
         <v>42334</v>
       </c>
-      <c r="B73" s="36">
+      <c r="B73" s="31">
         <v>20151126</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F73" s="19">
-        <v>1</v>
-      </c>
-      <c r="G73" s="19">
-        <v>1</v>
-      </c>
-      <c r="H73" s="19">
-        <v>1</v>
-      </c>
-      <c r="I73" s="19">
+      <c r="F73" s="17">
+        <v>1</v>
+      </c>
+      <c r="G73" s="17">
+        <v>1</v>
+      </c>
+      <c r="H73" s="17">
+        <v>1</v>
+      </c>
+      <c r="I73" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="35">
+      <c r="A74" s="30">
         <v>42363</v>
       </c>
-      <c r="B74" s="36">
+      <c r="B74" s="31">
         <v>20151225</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F74" s="19">
-        <v>1</v>
-      </c>
-      <c r="G74" s="19">
-        <v>1</v>
-      </c>
-      <c r="H74" s="19">
-        <v>1</v>
-      </c>
-      <c r="I74" s="19">
+      <c r="F74" s="17">
+        <v>1</v>
+      </c>
+      <c r="G74" s="17">
+        <v>1</v>
+      </c>
+      <c r="H74" s="17">
+        <v>1</v>
+      </c>
+      <c r="I74" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="35">
+      <c r="A75" s="30">
         <v>42370</v>
       </c>
-      <c r="B75" s="36">
+      <c r="B75" s="31">
         <v>20160101</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F75" s="19">
-        <v>1</v>
-      </c>
-      <c r="G75" s="19">
-        <v>1</v>
-      </c>
-      <c r="H75" s="19">
-        <v>1</v>
-      </c>
-      <c r="I75" s="19">
+      <c r="F75" s="17">
+        <v>1</v>
+      </c>
+      <c r="G75" s="17">
+        <v>1</v>
+      </c>
+      <c r="H75" s="17">
+        <v>1</v>
+      </c>
+      <c r="I75" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="35">
+      <c r="A76" s="30">
         <v>42387</v>
       </c>
-      <c r="B76" s="36">
+      <c r="B76" s="31">
         <v>20160118</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="13" t="s">
+      <c r="D76" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F76" s="19">
-        <v>1</v>
-      </c>
-      <c r="G76" s="19">
-        <v>1</v>
-      </c>
-      <c r="H76" s="19">
-        <v>1</v>
-      </c>
-      <c r="I76" s="19">
+      <c r="F76" s="17">
+        <v>1</v>
+      </c>
+      <c r="G76" s="17">
+        <v>1</v>
+      </c>
+      <c r="H76" s="17">
+        <v>1</v>
+      </c>
+      <c r="I76" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="35">
+      <c r="A77" s="30">
         <v>42415</v>
       </c>
-      <c r="B77" s="36">
+      <c r="B77" s="31">
         <v>20160215</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="13" t="s">
+      <c r="D77" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F77" s="19">
-        <v>1</v>
-      </c>
-      <c r="G77" s="19">
-        <v>1</v>
-      </c>
-      <c r="H77" s="19">
-        <v>1</v>
-      </c>
-      <c r="I77" s="19">
+      <c r="F77" s="17">
+        <v>1</v>
+      </c>
+      <c r="G77" s="17">
+        <v>1</v>
+      </c>
+      <c r="H77" s="17">
+        <v>1</v>
+      </c>
+      <c r="I77" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="35">
+      <c r="A78" s="30">
         <v>42454</v>
       </c>
-      <c r="B78" s="36">
+      <c r="B78" s="31">
         <v>20160325</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="13" t="s">
+      <c r="C78" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F78" s="19">
-        <v>1</v>
-      </c>
-      <c r="G78" s="19">
-        <v>0</v>
-      </c>
-      <c r="H78" s="19">
-        <v>1</v>
-      </c>
-      <c r="I78" s="19">
+      <c r="F78" s="17">
+        <v>1</v>
+      </c>
+      <c r="G78" s="17">
+        <v>0</v>
+      </c>
+      <c r="H78" s="17">
+        <v>1</v>
+      </c>
+      <c r="I78" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="35">
+      <c r="A79" s="30">
         <v>42520</v>
       </c>
-      <c r="B79" s="36">
+      <c r="B79" s="31">
         <v>20160530</v>
       </c>
-      <c r="C79" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="13" t="s">
+      <c r="C79" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F79" s="19">
-        <v>1</v>
-      </c>
-      <c r="G79" s="19">
-        <v>1</v>
-      </c>
-      <c r="H79" s="19">
-        <v>1</v>
-      </c>
-      <c r="I79" s="19">
+      <c r="F79" s="17">
+        <v>1</v>
+      </c>
+      <c r="G79" s="17">
+        <v>1</v>
+      </c>
+      <c r="H79" s="17">
+        <v>1</v>
+      </c>
+      <c r="I79" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="35">
+      <c r="A80" s="30">
         <v>42555</v>
       </c>
-      <c r="B80" s="36">
+      <c r="B80" s="31">
         <v>20160704</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="13" t="s">
+      <c r="D80" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F80" s="19">
-        <v>1</v>
-      </c>
-      <c r="G80" s="19">
-        <v>1</v>
-      </c>
-      <c r="H80" s="19">
-        <v>1</v>
-      </c>
-      <c r="I80" s="19">
+      <c r="F80" s="17">
+        <v>1</v>
+      </c>
+      <c r="G80" s="17">
+        <v>1</v>
+      </c>
+      <c r="H80" s="17">
+        <v>1</v>
+      </c>
+      <c r="I80" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="35">
+      <c r="A81" s="30">
         <v>42618</v>
       </c>
-      <c r="B81" s="36">
+      <c r="B81" s="31">
         <v>20160905</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="13" t="s">
+      <c r="D81" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F81" s="19">
-        <v>1</v>
-      </c>
-      <c r="G81" s="19">
-        <v>1</v>
-      </c>
-      <c r="H81" s="19">
-        <v>1</v>
-      </c>
-      <c r="I81" s="19">
+      <c r="F81" s="17">
+        <v>1</v>
+      </c>
+      <c r="G81" s="17">
+        <v>1</v>
+      </c>
+      <c r="H81" s="17">
+        <v>1</v>
+      </c>
+      <c r="I81" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="35">
+      <c r="A82" s="30">
         <v>42653</v>
       </c>
-      <c r="B82" s="36">
+      <c r="B82" s="31">
         <v>20161010</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="13" t="s">
+      <c r="D82" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F82" s="19">
-        <v>1</v>
-      </c>
-      <c r="G82" s="19">
-        <v>1</v>
-      </c>
-      <c r="H82" s="19">
-        <v>0</v>
-      </c>
-      <c r="I82" s="19">
+      <c r="F82" s="17">
+        <v>1</v>
+      </c>
+      <c r="G82" s="17">
+        <v>1</v>
+      </c>
+      <c r="H82" s="17">
+        <v>0</v>
+      </c>
+      <c r="I82" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="35">
+      <c r="A83" s="30">
         <v>42685</v>
       </c>
-      <c r="B83" s="36">
+      <c r="B83" s="31">
         <v>20161111</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="13" t="s">
+      <c r="E83" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F83" s="19">
-        <v>1</v>
-      </c>
-      <c r="G83" s="19">
-        <v>1</v>
-      </c>
-      <c r="H83" s="19">
-        <v>0</v>
-      </c>
-      <c r="I83" s="19">
+      <c r="F83" s="17">
+        <v>1</v>
+      </c>
+      <c r="G83" s="17">
+        <v>1</v>
+      </c>
+      <c r="H83" s="17">
+        <v>0</v>
+      </c>
+      <c r="I83" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="35">
+      <c r="A84" s="30">
         <v>42698</v>
       </c>
-      <c r="B84" s="36">
+      <c r="B84" s="31">
         <v>20161124</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="E84" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F84" s="19">
-        <v>1</v>
-      </c>
-      <c r="G84" s="19">
-        <v>1</v>
-      </c>
-      <c r="H84" s="19">
-        <v>1</v>
-      </c>
-      <c r="I84" s="19">
+      <c r="F84" s="17">
+        <v>1</v>
+      </c>
+      <c r="G84" s="17">
+        <v>1</v>
+      </c>
+      <c r="H84" s="17">
+        <v>1</v>
+      </c>
+      <c r="I84" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="37">
+      <c r="A85" s="32">
         <v>42729</v>
       </c>
-      <c r="B85" s="38">
+      <c r="B85" s="33">
         <v>20161225</v>
       </c>
-      <c r="C85" s="39" t="s">
+      <c r="C85" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D85" s="39" t="s">
+      <c r="D85" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E85" s="39" t="s">
+      <c r="E85" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="F85" s="40">
-        <v>1</v>
-      </c>
-      <c r="G85" s="40">
-        <v>0</v>
-      </c>
-      <c r="H85" s="40">
-        <v>0</v>
-      </c>
-      <c r="I85" s="40">
+      <c r="F85" s="35">
+        <v>1</v>
+      </c>
+      <c r="G85" s="35">
+        <v>0</v>
+      </c>
+      <c r="H85" s="35">
+        <v>0</v>
+      </c>
+      <c r="I85" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="35">
+      <c r="A86" s="30">
         <v>42730</v>
       </c>
-      <c r="B86" s="36">
+      <c r="B86" s="31">
         <v>20161226</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D86" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="13" t="s">
+      <c r="D86" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F86" s="19">
-        <v>1</v>
-      </c>
-      <c r="G86" s="19">
-        <v>1</v>
-      </c>
-      <c r="H86" s="19">
-        <v>1</v>
-      </c>
-      <c r="I86" s="19">
+      <c r="F86" s="17">
+        <v>1</v>
+      </c>
+      <c r="G86" s="17">
+        <v>1</v>
+      </c>
+      <c r="H86" s="17">
+        <v>1</v>
+      </c>
+      <c r="I86" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="37">
+      <c r="A87" s="32">
         <v>42736</v>
       </c>
-      <c r="B87" s="38">
+      <c r="B87" s="33">
         <v>20170101</v>
       </c>
-      <c r="C87" s="39" t="s">
+      <c r="C87" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="39" t="s">
+      <c r="D87" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="39" t="s">
+      <c r="E87" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F87" s="40">
-        <v>1</v>
-      </c>
-      <c r="G87" s="40">
-        <v>0</v>
-      </c>
-      <c r="H87" s="40">
-        <v>0</v>
-      </c>
-      <c r="I87" s="40">
+      <c r="F87" s="35">
+        <v>1</v>
+      </c>
+      <c r="G87" s="35">
+        <v>0</v>
+      </c>
+      <c r="H87" s="35">
+        <v>0</v>
+      </c>
+      <c r="I87" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="35">
+      <c r="A88" s="30">
         <v>42737</v>
       </c>
-      <c r="B88" s="36">
+      <c r="B88" s="31">
         <v>20170102</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D88" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="13" t="s">
+      <c r="D88" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F88" s="19">
-        <v>1</v>
-      </c>
-      <c r="G88" s="19">
-        <v>1</v>
-      </c>
-      <c r="H88" s="19">
-        <v>1</v>
-      </c>
-      <c r="I88" s="19">
+      <c r="F88" s="17">
+        <v>1</v>
+      </c>
+      <c r="G88" s="17">
+        <v>1</v>
+      </c>
+      <c r="H88" s="17">
+        <v>1</v>
+      </c>
+      <c r="I88" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="35">
+      <c r="A89" s="30">
         <v>42751</v>
       </c>
-      <c r="B89" s="36">
+      <c r="B89" s="31">
         <v>20170116</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="13" t="s">
+      <c r="D89" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F89" s="19">
-        <v>1</v>
-      </c>
-      <c r="G89" s="19">
-        <v>1</v>
-      </c>
-      <c r="H89" s="19">
-        <v>1</v>
-      </c>
-      <c r="I89" s="19">
+      <c r="F89" s="17">
+        <v>1</v>
+      </c>
+      <c r="G89" s="17">
+        <v>1</v>
+      </c>
+      <c r="H89" s="17">
+        <v>1</v>
+      </c>
+      <c r="I89" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="35">
+      <c r="A90" s="30">
         <v>42786</v>
       </c>
-      <c r="B90" s="36">
+      <c r="B90" s="31">
         <v>20170220</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="13" t="s">
+      <c r="D90" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F90" s="19">
-        <v>1</v>
-      </c>
-      <c r="G90" s="19">
-        <v>1</v>
-      </c>
-      <c r="H90" s="19">
-        <v>1</v>
-      </c>
-      <c r="I90" s="19">
+      <c r="F90" s="17">
+        <v>1</v>
+      </c>
+      <c r="G90" s="17">
+        <v>1</v>
+      </c>
+      <c r="H90" s="17">
+        <v>1</v>
+      </c>
+      <c r="I90" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="35">
+      <c r="A91" s="30">
         <v>42839</v>
       </c>
-      <c r="B91" s="36">
+      <c r="B91" s="31">
         <v>20170414</v>
       </c>
-      <c r="C91" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="13" t="s">
+      <c r="C91" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E91" s="13" t="s">
+      <c r="E91" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F91" s="19">
-        <v>1</v>
-      </c>
-      <c r="G91" s="19">
-        <v>0</v>
-      </c>
-      <c r="H91" s="19">
-        <v>1</v>
-      </c>
-      <c r="I91" s="19">
+      <c r="F91" s="17">
+        <v>1</v>
+      </c>
+      <c r="G91" s="17">
+        <v>0</v>
+      </c>
+      <c r="H91" s="17">
+        <v>1</v>
+      </c>
+      <c r="I91" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="35">
+      <c r="A92" s="30">
         <v>42884</v>
       </c>
-      <c r="B92" s="36">
+      <c r="B92" s="31">
         <v>20170529</v>
       </c>
-      <c r="C92" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="13" t="s">
+      <c r="C92" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F92" s="19">
-        <v>1</v>
-      </c>
-      <c r="G92" s="19">
-        <v>1</v>
-      </c>
-      <c r="H92" s="19">
-        <v>1</v>
-      </c>
-      <c r="I92" s="19">
+      <c r="F92" s="17">
+        <v>1</v>
+      </c>
+      <c r="G92" s="17">
+        <v>1</v>
+      </c>
+      <c r="H92" s="17">
+        <v>1</v>
+      </c>
+      <c r="I92" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="35">
+      <c r="A93" s="30">
         <v>42920</v>
       </c>
-      <c r="B93" s="36">
+      <c r="B93" s="31">
         <v>20170704</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D93" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E93" s="13" t="s">
+      <c r="E93" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F93" s="19">
-        <v>1</v>
-      </c>
-      <c r="G93" s="19">
-        <v>1</v>
-      </c>
-      <c r="H93" s="19">
-        <v>1</v>
-      </c>
-      <c r="I93" s="19">
+      <c r="F93" s="17">
+        <v>1</v>
+      </c>
+      <c r="G93" s="17">
+        <v>1</v>
+      </c>
+      <c r="H93" s="17">
+        <v>1</v>
+      </c>
+      <c r="I93" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="35">
+      <c r="A94" s="30">
         <v>42982</v>
       </c>
-      <c r="B94" s="36">
+      <c r="B94" s="31">
         <v>20170904</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="13" t="s">
+      <c r="D94" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F94" s="19">
-        <v>1</v>
-      </c>
-      <c r="G94" s="19">
-        <v>1</v>
-      </c>
-      <c r="H94" s="19">
-        <v>1</v>
-      </c>
-      <c r="I94" s="19">
+      <c r="F94" s="17">
+        <v>1</v>
+      </c>
+      <c r="G94" s="17">
+        <v>1</v>
+      </c>
+      <c r="H94" s="17">
+        <v>1</v>
+      </c>
+      <c r="I94" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="35">
+      <c r="A95" s="30">
         <v>43017</v>
       </c>
-      <c r="B95" s="36">
+      <c r="B95" s="31">
         <v>20171009</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D95" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="13" t="s">
+      <c r="D95" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F95" s="19">
-        <v>1</v>
-      </c>
-      <c r="G95" s="19">
-        <v>1</v>
-      </c>
-      <c r="H95" s="19">
-        <v>0</v>
-      </c>
-      <c r="I95" s="19">
+      <c r="F95" s="17">
+        <v>1</v>
+      </c>
+      <c r="G95" s="17">
+        <v>1</v>
+      </c>
+      <c r="H95" s="17">
+        <v>0</v>
+      </c>
+      <c r="I95" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="35">
+      <c r="A96" s="30">
         <v>43049</v>
       </c>
-      <c r="B96" s="36">
+      <c r="B96" s="31">
         <v>20171110</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="D96" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="13" t="s">
+      <c r="E96" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F96" s="19">
-        <v>1</v>
-      </c>
-      <c r="G96" s="19">
-        <v>0</v>
-      </c>
-      <c r="H96" s="19">
-        <v>0</v>
-      </c>
-      <c r="I96" s="19">
+      <c r="F96" s="17">
+        <v>1</v>
+      </c>
+      <c r="G96" s="17">
+        <v>0</v>
+      </c>
+      <c r="H96" s="17">
+        <v>0</v>
+      </c>
+      <c r="I96" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="37">
+      <c r="A97" s="32">
         <v>43050</v>
       </c>
-      <c r="B97" s="38">
+      <c r="B97" s="33">
         <v>20171111</v>
       </c>
-      <c r="C97" s="39" t="s">
+      <c r="C97" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="39" t="s">
+      <c r="D97" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="39" t="s">
+      <c r="E97" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="F97" s="40">
-        <v>1</v>
-      </c>
-      <c r="G97" s="40">
-        <v>0</v>
-      </c>
-      <c r="H97" s="40">
-        <v>0</v>
-      </c>
-      <c r="I97" s="40">
+      <c r="F97" s="35">
+        <v>1</v>
+      </c>
+      <c r="G97" s="35">
+        <v>0</v>
+      </c>
+      <c r="H97" s="35">
+        <v>0</v>
+      </c>
+      <c r="I97" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="35">
+      <c r="A98" s="30">
         <v>43062</v>
       </c>
-      <c r="B98" s="36">
+      <c r="B98" s="31">
         <v>20171123</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="13" t="s">
+      <c r="E98" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F98" s="19">
-        <v>1</v>
-      </c>
-      <c r="G98" s="19">
-        <v>1</v>
-      </c>
-      <c r="H98" s="19">
-        <v>1</v>
-      </c>
-      <c r="I98" s="19">
+      <c r="F98" s="17">
+        <v>1</v>
+      </c>
+      <c r="G98" s="17">
+        <v>1</v>
+      </c>
+      <c r="H98" s="17">
+        <v>1</v>
+      </c>
+      <c r="I98" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="35">
+      <c r="A99" s="30">
         <v>43094</v>
       </c>
-      <c r="B99" s="36">
+      <c r="B99" s="31">
         <v>20171225</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D99" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="13" t="s">
+      <c r="D99" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F99" s="19">
-        <v>1</v>
-      </c>
-      <c r="G99" s="19">
-        <v>1</v>
-      </c>
-      <c r="H99" s="19">
-        <v>1</v>
-      </c>
-      <c r="I99" s="19">
+      <c r="F99" s="17">
+        <v>1</v>
+      </c>
+      <c r="G99" s="17">
+        <v>1</v>
+      </c>
+      <c r="H99" s="17">
+        <v>1</v>
+      </c>
+      <c r="I99" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="35">
+      <c r="A100" s="30">
         <v>43101</v>
       </c>
-      <c r="B100" s="36">
+      <c r="B100" s="31">
         <v>20180101</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="13" t="s">
+      <c r="D100" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F100" s="19">
-        <v>1</v>
-      </c>
-      <c r="G100" s="19">
-        <v>1</v>
-      </c>
-      <c r="H100" s="19">
-        <v>1</v>
-      </c>
-      <c r="I100" s="19">
+      <c r="F100" s="17">
+        <v>1</v>
+      </c>
+      <c r="G100" s="17">
+        <v>1</v>
+      </c>
+      <c r="H100" s="17">
+        <v>1</v>
+      </c>
+      <c r="I100" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="35">
+      <c r="A101" s="30">
         <v>43115</v>
       </c>
-      <c r="B101" s="36">
+      <c r="B101" s="31">
         <v>20180115</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D101" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="13" t="s">
+      <c r="D101" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F101" s="19">
-        <v>1</v>
-      </c>
-      <c r="G101" s="19">
-        <v>1</v>
-      </c>
-      <c r="H101" s="19">
-        <v>1</v>
-      </c>
-      <c r="I101" s="19">
+      <c r="F101" s="17">
+        <v>1</v>
+      </c>
+      <c r="G101" s="17">
+        <v>1</v>
+      </c>
+      <c r="H101" s="17">
+        <v>1</v>
+      </c>
+      <c r="I101" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="35">
+      <c r="A102" s="30">
         <v>43150</v>
       </c>
-      <c r="B102" s="36">
+      <c r="B102" s="31">
         <v>20180219</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D102" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="13" t="s">
+      <c r="D102" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F102" s="19">
-        <v>1</v>
-      </c>
-      <c r="G102" s="19">
-        <v>1</v>
-      </c>
-      <c r="H102" s="19">
-        <v>1</v>
-      </c>
-      <c r="I102" s="19">
+      <c r="F102" s="17">
+        <v>1</v>
+      </c>
+      <c r="G102" s="17">
+        <v>1</v>
+      </c>
+      <c r="H102" s="17">
+        <v>1</v>
+      </c>
+      <c r="I102" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="35">
+      <c r="A103" s="30">
         <v>43189</v>
       </c>
-      <c r="B103" s="36">
+      <c r="B103" s="31">
         <v>20180330</v>
       </c>
-      <c r="C103" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D103" s="13" t="s">
+      <c r="C103" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E103" s="13" t="s">
+      <c r="E103" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F103" s="19">
-        <v>1</v>
-      </c>
-      <c r="G103" s="19">
-        <v>0</v>
-      </c>
-      <c r="H103" s="19">
-        <v>1</v>
-      </c>
-      <c r="I103" s="19">
+      <c r="F103" s="17">
+        <v>1</v>
+      </c>
+      <c r="G103" s="17">
+        <v>0</v>
+      </c>
+      <c r="H103" s="17">
+        <v>1</v>
+      </c>
+      <c r="I103" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="35">
+      <c r="A104" s="30">
         <v>43248</v>
       </c>
-      <c r="B104" s="36">
+      <c r="B104" s="31">
         <v>20180528</v>
       </c>
-      <c r="C104" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="13" t="s">
+      <c r="C104" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F104" s="19">
-        <v>1</v>
-      </c>
-      <c r="G104" s="19">
-        <v>1</v>
-      </c>
-      <c r="H104" s="19">
-        <v>1</v>
-      </c>
-      <c r="I104" s="19">
+      <c r="F104" s="17">
+        <v>1</v>
+      </c>
+      <c r="G104" s="17">
+        <v>1</v>
+      </c>
+      <c r="H104" s="17">
+        <v>1</v>
+      </c>
+      <c r="I104" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="35">
+      <c r="A105" s="30">
         <v>43285</v>
       </c>
-      <c r="B105" s="36">
+      <c r="B105" s="31">
         <v>20180704</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D105" s="13" t="s">
+      <c r="D105" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E105" s="13" t="s">
+      <c r="E105" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F105" s="19">
-        <v>1</v>
-      </c>
-      <c r="G105" s="19">
-        <v>1</v>
-      </c>
-      <c r="H105" s="19">
-        <v>1</v>
-      </c>
-      <c r="I105" s="19">
+      <c r="F105" s="17">
+        <v>1</v>
+      </c>
+      <c r="G105" s="17">
+        <v>1</v>
+      </c>
+      <c r="H105" s="17">
+        <v>1</v>
+      </c>
+      <c r="I105" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="35">
+      <c r="A106" s="30">
         <v>43346</v>
       </c>
-      <c r="B106" s="36">
+      <c r="B106" s="31">
         <v>20180903</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D106" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" s="13" t="s">
+      <c r="D106" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F106" s="19">
-        <v>1</v>
-      </c>
-      <c r="G106" s="19">
-        <v>1</v>
-      </c>
-      <c r="H106" s="19">
-        <v>1</v>
-      </c>
-      <c r="I106" s="19">
+      <c r="F106" s="17">
+        <v>1</v>
+      </c>
+      <c r="G106" s="17">
+        <v>1</v>
+      </c>
+      <c r="H106" s="17">
+        <v>1</v>
+      </c>
+      <c r="I106" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="35">
+      <c r="A107" s="30">
         <v>43381</v>
       </c>
-      <c r="B107" s="36">
+      <c r="B107" s="31">
         <v>20181008</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C107" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D107" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="13" t="s">
+      <c r="D107" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F107" s="19">
-        <v>1</v>
-      </c>
-      <c r="G107" s="19">
-        <v>1</v>
-      </c>
-      <c r="H107" s="19">
-        <v>0</v>
-      </c>
-      <c r="I107" s="19">
+      <c r="F107" s="17">
+        <v>1</v>
+      </c>
+      <c r="G107" s="17">
+        <v>1</v>
+      </c>
+      <c r="H107" s="17">
+        <v>0</v>
+      </c>
+      <c r="I107" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="37">
+      <c r="A108" s="32">
         <v>43415</v>
       </c>
-      <c r="B108" s="38">
+      <c r="B108" s="33">
         <v>20181111</v>
       </c>
-      <c r="C108" s="39" t="s">
+      <c r="C108" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="39" t="s">
+      <c r="D108" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="39" t="s">
+      <c r="E108" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="F108" s="40">
-        <v>1</v>
-      </c>
-      <c r="G108" s="40">
-        <v>0</v>
-      </c>
-      <c r="H108" s="40">
-        <v>0</v>
-      </c>
-      <c r="I108" s="40">
+      <c r="F108" s="35">
+        <v>1</v>
+      </c>
+      <c r="G108" s="35">
+        <v>0</v>
+      </c>
+      <c r="H108" s="35">
+        <v>0</v>
+      </c>
+      <c r="I108" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="35">
+      <c r="A109" s="30">
         <v>43416</v>
       </c>
-      <c r="B109" s="36">
+      <c r="B109" s="31">
         <v>20181112</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C109" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D109" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="13" t="s">
+      <c r="D109" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F109" s="19">
-        <v>1</v>
-      </c>
-      <c r="G109" s="19">
-        <v>1</v>
-      </c>
-      <c r="H109" s="19">
-        <v>0</v>
-      </c>
-      <c r="I109" s="19">
+      <c r="F109" s="17">
+        <v>1</v>
+      </c>
+      <c r="G109" s="17">
+        <v>1</v>
+      </c>
+      <c r="H109" s="17">
+        <v>0</v>
+      </c>
+      <c r="I109" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="35">
+      <c r="A110" s="30">
         <v>43426</v>
       </c>
-      <c r="B110" s="36">
+      <c r="B110" s="31">
         <v>20181122</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C110" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D110" s="13" t="s">
+      <c r="D110" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="13" t="s">
+      <c r="E110" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F110" s="19">
-        <v>1</v>
-      </c>
-      <c r="G110" s="19">
-        <v>1</v>
-      </c>
-      <c r="H110" s="19">
-        <v>1</v>
-      </c>
-      <c r="I110" s="19">
+      <c r="F110" s="17">
+        <v>1</v>
+      </c>
+      <c r="G110" s="17">
+        <v>1</v>
+      </c>
+      <c r="H110" s="17">
+        <v>1</v>
+      </c>
+      <c r="I110" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="35">
+      <c r="A111" s="30">
         <v>43459</v>
       </c>
-      <c r="B111" s="36">
+      <c r="B111" s="31">
         <v>20181225</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="C111" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="D111" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E111" s="13" t="s">
+      <c r="E111" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F111" s="19">
-        <v>1</v>
-      </c>
-      <c r="G111" s="19">
-        <v>1</v>
-      </c>
-      <c r="H111" s="19">
-        <v>1</v>
-      </c>
-      <c r="I111" s="19">
+      <c r="F111" s="17">
+        <v>1</v>
+      </c>
+      <c r="G111" s="17">
+        <v>1</v>
+      </c>
+      <c r="H111" s="17">
+        <v>1</v>
+      </c>
+      <c r="I111" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="35">
+      <c r="A112" s="30">
         <v>43466</v>
       </c>
-      <c r="B112" s="36">
+      <c r="B112" s="31">
         <v>20190101</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D112" s="13" t="s">
+      <c r="D112" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E112" s="13" t="s">
+      <c r="E112" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F112" s="19">
-        <v>1</v>
-      </c>
-      <c r="G112" s="19">
-        <v>1</v>
-      </c>
-      <c r="H112" s="19">
-        <v>1</v>
-      </c>
-      <c r="I112" s="19">
+      <c r="F112" s="17">
+        <v>1</v>
+      </c>
+      <c r="G112" s="17">
+        <v>1</v>
+      </c>
+      <c r="H112" s="17">
+        <v>1</v>
+      </c>
+      <c r="I112" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="35">
+      <c r="A113" s="30">
         <v>43486</v>
       </c>
-      <c r="B113" s="36">
+      <c r="B113" s="31">
         <v>20190121</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="C113" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D113" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="13" t="s">
+      <c r="D113" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F113" s="19">
-        <v>1</v>
-      </c>
-      <c r="G113" s="19">
-        <v>1</v>
-      </c>
-      <c r="H113" s="19">
-        <v>1</v>
-      </c>
-      <c r="I113" s="19">
+      <c r="F113" s="17">
+        <v>1</v>
+      </c>
+      <c r="G113" s="17">
+        <v>1</v>
+      </c>
+      <c r="H113" s="17">
+        <v>1</v>
+      </c>
+      <c r="I113" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="35">
+      <c r="A114" s="30">
         <v>43514</v>
       </c>
-      <c r="B114" s="36">
+      <c r="B114" s="31">
         <v>20190218</v>
       </c>
-      <c r="C114" s="13" t="s">
+      <c r="C114" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D114" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="13" t="s">
+      <c r="D114" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F114" s="19">
-        <v>1</v>
-      </c>
-      <c r="G114" s="19">
-        <v>1</v>
-      </c>
-      <c r="H114" s="19">
-        <v>1</v>
-      </c>
-      <c r="I114" s="19">
+      <c r="F114" s="17">
+        <v>1</v>
+      </c>
+      <c r="G114" s="17">
+        <v>1</v>
+      </c>
+      <c r="H114" s="17">
+        <v>1</v>
+      </c>
+      <c r="I114" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="35">
+      <c r="A115" s="30">
         <v>43574</v>
       </c>
-      <c r="B115" s="36">
+      <c r="B115" s="31">
         <v>20190419</v>
       </c>
-      <c r="C115" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D115" s="13" t="s">
+      <c r="C115" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E115" s="13" t="s">
+      <c r="E115" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F115" s="19">
-        <v>1</v>
-      </c>
-      <c r="G115" s="19">
-        <v>0</v>
-      </c>
-      <c r="H115" s="19">
-        <v>1</v>
-      </c>
-      <c r="I115" s="19">
+      <c r="F115" s="17">
+        <v>1</v>
+      </c>
+      <c r="G115" s="17">
+        <v>0</v>
+      </c>
+      <c r="H115" s="17">
+        <v>1</v>
+      </c>
+      <c r="I115" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="35">
+      <c r="A116" s="30">
         <v>43612</v>
       </c>
-      <c r="B116" s="36">
+      <c r="B116" s="31">
         <v>20190527</v>
       </c>
-      <c r="C116" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="13" t="s">
+      <c r="C116" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F116" s="19">
-        <v>1</v>
-      </c>
-      <c r="G116" s="19">
-        <v>1</v>
-      </c>
-      <c r="H116" s="19">
-        <v>1</v>
-      </c>
-      <c r="I116" s="19">
+      <c r="F116" s="17">
+        <v>1</v>
+      </c>
+      <c r="G116" s="17">
+        <v>1</v>
+      </c>
+      <c r="H116" s="17">
+        <v>1</v>
+      </c>
+      <c r="I116" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="35">
+      <c r="A117" s="30">
         <v>43650</v>
       </c>
-      <c r="B117" s="36">
+      <c r="B117" s="31">
         <v>20190704</v>
       </c>
-      <c r="C117" s="13" t="s">
+      <c r="C117" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D117" s="13" t="s">
+      <c r="D117" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E117" s="13" t="s">
+      <c r="E117" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F117" s="19">
-        <v>1</v>
-      </c>
-      <c r="G117" s="19">
-        <v>1</v>
-      </c>
-      <c r="H117" s="19">
-        <v>1</v>
-      </c>
-      <c r="I117" s="19">
+      <c r="F117" s="17">
+        <v>1</v>
+      </c>
+      <c r="G117" s="17">
+        <v>1</v>
+      </c>
+      <c r="H117" s="17">
+        <v>1</v>
+      </c>
+      <c r="I117" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="35">
+      <c r="A118" s="30">
         <v>43710</v>
       </c>
-      <c r="B118" s="36">
+      <c r="B118" s="31">
         <v>20190902</v>
       </c>
-      <c r="C118" s="13" t="s">
+      <c r="C118" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D118" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" s="13" t="s">
+      <c r="D118" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F118" s="19">
-        <v>1</v>
-      </c>
-      <c r="G118" s="19">
-        <v>1</v>
-      </c>
-      <c r="H118" s="19">
-        <v>1</v>
-      </c>
-      <c r="I118" s="19">
+      <c r="F118" s="17">
+        <v>1</v>
+      </c>
+      <c r="G118" s="17">
+        <v>1</v>
+      </c>
+      <c r="H118" s="17">
+        <v>1</v>
+      </c>
+      <c r="I118" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="35">
+      <c r="A119" s="30">
         <v>43752</v>
       </c>
-      <c r="B119" s="36">
+      <c r="B119" s="31">
         <v>20191014</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="C119" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D119" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="13" t="s">
+      <c r="D119" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F119" s="19">
-        <v>1</v>
-      </c>
-      <c r="G119" s="19">
-        <v>1</v>
-      </c>
-      <c r="H119" s="19">
-        <v>0</v>
-      </c>
-      <c r="I119" s="19">
+      <c r="F119" s="17">
+        <v>1</v>
+      </c>
+      <c r="G119" s="17">
+        <v>1</v>
+      </c>
+      <c r="H119" s="17">
+        <v>0</v>
+      </c>
+      <c r="I119" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="35">
+      <c r="A120" s="30">
         <v>43780</v>
       </c>
-      <c r="B120" s="36">
+      <c r="B120" s="31">
         <v>20191111</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="C120" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D120" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="13" t="s">
+      <c r="D120" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F120" s="19">
-        <v>1</v>
-      </c>
-      <c r="G120" s="19">
-        <v>1</v>
-      </c>
-      <c r="H120" s="19">
-        <v>0</v>
-      </c>
-      <c r="I120" s="19">
+      <c r="F120" s="17">
+        <v>1</v>
+      </c>
+      <c r="G120" s="17">
+        <v>1</v>
+      </c>
+      <c r="H120" s="17">
+        <v>0</v>
+      </c>
+      <c r="I120" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="35">
+      <c r="A121" s="30">
         <v>43797</v>
       </c>
-      <c r="B121" s="36">
+      <c r="B121" s="31">
         <v>20191128</v>
       </c>
-      <c r="C121" s="13" t="s">
+      <c r="C121" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D121" s="13" t="s">
+      <c r="D121" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E121" s="13" t="s">
+      <c r="E121" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F121" s="19">
-        <v>1</v>
-      </c>
-      <c r="G121" s="19">
-        <v>1</v>
-      </c>
-      <c r="H121" s="19">
-        <v>1</v>
-      </c>
-      <c r="I121" s="19">
+      <c r="F121" s="17">
+        <v>1</v>
+      </c>
+      <c r="G121" s="17">
+        <v>1</v>
+      </c>
+      <c r="H121" s="17">
+        <v>1</v>
+      </c>
+      <c r="I121" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="35">
+      <c r="A122" s="30">
         <v>43824</v>
       </c>
-      <c r="B122" s="36">
+      <c r="B122" s="31">
         <v>20191225</v>
       </c>
-      <c r="C122" s="13" t="s">
+      <c r="C122" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D122" s="13" t="s">
+      <c r="D122" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E122" s="13" t="s">
+      <c r="E122" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F122" s="19">
-        <v>1</v>
-      </c>
-      <c r="G122" s="19">
-        <v>1</v>
-      </c>
-      <c r="H122" s="19">
-        <v>1</v>
-      </c>
-      <c r="I122" s="19">
+      <c r="F122" s="17">
+        <v>1</v>
+      </c>
+      <c r="G122" s="17">
+        <v>1</v>
+      </c>
+      <c r="H122" s="17">
+        <v>1</v>
+      </c>
+      <c r="I122" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="35">
+      <c r="A123" s="30">
         <v>43831</v>
       </c>
-      <c r="B123" s="36">
+      <c r="B123" s="31">
         <v>20200101</v>
       </c>
-      <c r="C123" s="13" t="s">
+      <c r="C123" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D123" s="13" t="s">
+      <c r="D123" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E123" s="13" t="s">
+      <c r="E123" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F123" s="19">
-        <v>1</v>
-      </c>
-      <c r="G123" s="19">
-        <v>1</v>
-      </c>
-      <c r="H123" s="19">
-        <v>1</v>
-      </c>
-      <c r="I123" s="19">
+      <c r="F123" s="17">
+        <v>1</v>
+      </c>
+      <c r="G123" s="17">
+        <v>1</v>
+      </c>
+      <c r="H123" s="17">
+        <v>1</v>
+      </c>
+      <c r="I123" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="35">
+      <c r="A124" s="30">
         <v>43850</v>
       </c>
-      <c r="B124" s="36">
+      <c r="B124" s="31">
         <v>20200120</v>
       </c>
-      <c r="C124" s="13" t="s">
+      <c r="C124" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D124" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" s="13" t="s">
+      <c r="D124" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F124" s="19">
-        <v>1</v>
-      </c>
-      <c r="G124" s="19">
-        <v>1</v>
-      </c>
-      <c r="H124" s="19">
-        <v>1</v>
-      </c>
-      <c r="I124" s="19">
+      <c r="F124" s="17">
+        <v>1</v>
+      </c>
+      <c r="G124" s="17">
+        <v>1</v>
+      </c>
+      <c r="H124" s="17">
+        <v>1</v>
+      </c>
+      <c r="I124" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="35">
+      <c r="A125" s="30">
         <v>43878</v>
       </c>
-      <c r="B125" s="36">
+      <c r="B125" s="31">
         <v>20200217</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="C125" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D125" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125" s="13" t="s">
+      <c r="D125" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F125" s="19">
-        <v>1</v>
-      </c>
-      <c r="G125" s="19">
-        <v>1</v>
-      </c>
-      <c r="H125" s="19">
-        <v>1</v>
-      </c>
-      <c r="I125" s="19">
+      <c r="F125" s="17">
+        <v>1</v>
+      </c>
+      <c r="G125" s="17">
+        <v>1</v>
+      </c>
+      <c r="H125" s="17">
+        <v>1</v>
+      </c>
+      <c r="I125" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="35">
+      <c r="A126" s="30">
         <v>43931</v>
       </c>
-      <c r="B126" s="36">
+      <c r="B126" s="31">
         <v>20200410</v>
       </c>
-      <c r="C126" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D126" s="13" t="s">
+      <c r="C126" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E126" s="13" t="s">
+      <c r="E126" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F126" s="19">
-        <v>1</v>
-      </c>
-      <c r="G126" s="19">
-        <v>0</v>
-      </c>
-      <c r="H126" s="19">
-        <v>1</v>
-      </c>
-      <c r="I126" s="19">
+      <c r="F126" s="17">
+        <v>1</v>
+      </c>
+      <c r="G126" s="17">
+        <v>0</v>
+      </c>
+      <c r="H126" s="17">
+        <v>1</v>
+      </c>
+      <c r="I126" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="35">
+      <c r="A127" s="30">
         <v>43976</v>
       </c>
-      <c r="B127" s="36">
+      <c r="B127" s="31">
         <v>20200525</v>
       </c>
-      <c r="C127" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" s="13" t="s">
+      <c r="C127" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F127" s="19">
-        <v>1</v>
-      </c>
-      <c r="G127" s="19">
-        <v>1</v>
-      </c>
-      <c r="H127" s="19">
-        <v>1</v>
-      </c>
-      <c r="I127" s="19">
+      <c r="F127" s="17">
+        <v>1</v>
+      </c>
+      <c r="G127" s="17">
+        <v>1</v>
+      </c>
+      <c r="H127" s="17">
+        <v>1</v>
+      </c>
+      <c r="I127" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="35">
+      <c r="A128" s="30">
         <v>44015</v>
       </c>
-      <c r="B128" s="36">
+      <c r="B128" s="31">
         <v>20200703</v>
       </c>
-      <c r="C128" s="13" t="s">
+      <c r="C128" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D128" s="13" t="s">
+      <c r="D128" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E128" s="13" t="s">
+      <c r="E128" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F128" s="19">
-        <v>1</v>
-      </c>
-      <c r="G128" s="19">
-        <v>0</v>
-      </c>
-      <c r="H128" s="19">
-        <v>1</v>
-      </c>
-      <c r="I128" s="19">
+      <c r="F128" s="17">
+        <v>1</v>
+      </c>
+      <c r="G128" s="17">
+        <v>0</v>
+      </c>
+      <c r="H128" s="17">
+        <v>1</v>
+      </c>
+      <c r="I128" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="37">
+      <c r="A129" s="32">
         <v>44016</v>
       </c>
-      <c r="B129" s="38">
+      <c r="B129" s="33">
         <v>20200704</v>
       </c>
-      <c r="C129" s="39" t="s">
+      <c r="C129" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D129" s="39" t="s">
+      <c r="D129" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E129" s="39" t="s">
+      <c r="E129" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="F129" s="40">
-        <v>1</v>
-      </c>
-      <c r="G129" s="40">
-        <v>0</v>
-      </c>
-      <c r="H129" s="40">
-        <v>0</v>
-      </c>
-      <c r="I129" s="40">
+      <c r="F129" s="35">
+        <v>1</v>
+      </c>
+      <c r="G129" s="35">
+        <v>0</v>
+      </c>
+      <c r="H129" s="35">
+        <v>0</v>
+      </c>
+      <c r="I129" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="35">
+      <c r="A130" s="30">
         <v>44081</v>
       </c>
-      <c r="B130" s="36">
+      <c r="B130" s="31">
         <v>20200907</v>
       </c>
-      <c r="C130" s="13" t="s">
+      <c r="C130" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D130" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" s="13" t="s">
+      <c r="D130" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F130" s="19">
-        <v>1</v>
-      </c>
-      <c r="G130" s="19">
-        <v>1</v>
-      </c>
-      <c r="H130" s="19">
-        <v>1</v>
-      </c>
-      <c r="I130" s="19">
+      <c r="F130" s="17">
+        <v>1</v>
+      </c>
+      <c r="G130" s="17">
+        <v>1</v>
+      </c>
+      <c r="H130" s="17">
+        <v>1</v>
+      </c>
+      <c r="I130" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="35">
+      <c r="A131" s="30">
         <v>44116</v>
       </c>
-      <c r="B131" s="36">
+      <c r="B131" s="31">
         <v>20201012</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="C131" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D131" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" s="13" t="s">
+      <c r="D131" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F131" s="19">
-        <v>1</v>
-      </c>
-      <c r="G131" s="19">
-        <v>1</v>
-      </c>
-      <c r="H131" s="19">
-        <v>0</v>
-      </c>
-      <c r="I131" s="19">
+      <c r="F131" s="17">
+        <v>1</v>
+      </c>
+      <c r="G131" s="17">
+        <v>1</v>
+      </c>
+      <c r="H131" s="17">
+        <v>0</v>
+      </c>
+      <c r="I131" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="35">
+      <c r="A132" s="30">
         <v>44146</v>
       </c>
-      <c r="B132" s="36">
+      <c r="B132" s="31">
         <v>20201111</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="13" t="s">
+      <c r="D132" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E132" s="13" t="s">
+      <c r="E132" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F132" s="19">
-        <v>1</v>
-      </c>
-      <c r="G132" s="19">
-        <v>1</v>
-      </c>
-      <c r="H132" s="19">
-        <v>0</v>
-      </c>
-      <c r="I132" s="19">
+      <c r="F132" s="17">
+        <v>1</v>
+      </c>
+      <c r="G132" s="17">
+        <v>1</v>
+      </c>
+      <c r="H132" s="17">
+        <v>0</v>
+      </c>
+      <c r="I132" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="35">
+      <c r="A133" s="30">
         <v>44161</v>
       </c>
-      <c r="B133" s="36">
+      <c r="B133" s="31">
         <v>20201126</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="C133" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D133" s="13" t="s">
+      <c r="D133" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="13" t="s">
+      <c r="E133" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F133" s="19">
-        <v>1</v>
-      </c>
-      <c r="G133" s="19">
-        <v>1</v>
-      </c>
-      <c r="H133" s="19">
-        <v>1</v>
-      </c>
-      <c r="I133" s="19">
+      <c r="F133" s="17">
+        <v>1</v>
+      </c>
+      <c r="G133" s="17">
+        <v>1</v>
+      </c>
+      <c r="H133" s="17">
+        <v>1</v>
+      </c>
+      <c r="I133" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="35">
+      <c r="A134" s="30">
         <v>44190</v>
       </c>
-      <c r="B134" s="36">
+      <c r="B134" s="31">
         <v>20201225</v>
       </c>
-      <c r="C134" s="13" t="s">
+      <c r="C134" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D134" s="13" t="s">
+      <c r="D134" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="13" t="s">
+      <c r="E134" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F134" s="19">
-        <v>1</v>
-      </c>
-      <c r="G134" s="19">
-        <v>1</v>
-      </c>
-      <c r="H134" s="19">
-        <v>1</v>
-      </c>
-      <c r="I134" s="19">
+      <c r="F134" s="17">
+        <v>1</v>
+      </c>
+      <c r="G134" s="17">
+        <v>1</v>
+      </c>
+      <c r="H134" s="17">
+        <v>1</v>
+      </c>
+      <c r="I134" s="17">
         <v>1</v>
       </c>
     </row>
@@ -5199,8 +5202,8 @@
     <col min="2" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5228,14 +5231,14 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -5245,231 +5248,231 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="30">
+    <row r="8" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="25">
         <v>2017</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="25">
         <v>2018</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="25">
         <v>2019</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="25">
         <v>2020</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="25">
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="27">
         <v>42736</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="27">
         <v>42736</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="27">
         <v>42736</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="27">
         <v>42736</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="27">
         <v>42751</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="27">
         <v>42750</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="27">
         <v>42756</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="27">
         <v>42755</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="27">
         <v>42753</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="27">
         <v>42786</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="27">
         <v>42785</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="27">
         <v>42784</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="27">
         <v>42783</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="27">
         <v>42781</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="32">
+    <row r="12" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="27">
         <v>42884</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="27">
         <v>42883</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="27">
         <v>42882</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="27">
         <v>42880</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="27">
         <v>42886</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="27">
         <v>42920</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="27">
         <v>42920</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="27">
         <v>42920</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="27">
         <v>42982</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="27">
         <v>42981</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="27">
         <v>42980</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="27">
         <v>42985</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="27">
         <v>42984</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="27">
         <v>43017</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="27">
         <v>43016</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="27">
         <v>43022</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="27">
         <v>43020</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="27">
         <v>43019</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="27">
         <v>43050</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="27">
         <v>43050</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="27">
         <v>43050</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="27">
         <v>43062</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="27">
         <v>43061</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="27">
         <v>43067</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="27">
         <v>43065</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="27">
         <v>43064</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="27">
         <v>43094</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="27">
         <v>43094</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="27">
         <v>43094</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="27">
         <v>43094</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="29">
         <v>44555</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+    <row r="19" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -5523,280 +5526,280 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="10" customWidth="1"/>
-    <col min="2" max="4" width="25.28515625" style="10" customWidth="1"/>
-    <col min="5" max="6" width="1.42578125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="70" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="19.7109375" style="9" customWidth="1"/>
+    <col min="2" max="4" width="25.28515625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="1.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="70" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="23"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="20" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="42" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F7" s="23"/>
-      <c r="G7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>2017</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>2018</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>2019</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="20"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="13"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="21" t="s">
+      <c r="F16" s="20"/>
+      <c r="G16" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="26" t="s">
+      <c r="F17" s="20"/>
+      <c r="G17" s="43" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="26"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F19" s="23"/>
-      <c r="G19" s="26"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="43"/>
     </row>
     <row r="20" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="25" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="22" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="13"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="F22" s="23"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F23" s="23"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="F24" s="23"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F25" s="23"/>
+      <c r="F25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5821,27 +5824,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="62.28515625" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="25.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:3" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:3" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5849,8 +5852,8 @@
       <c r="A5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>142</v>
+      <c r="B5" s="12" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -5859,130 +5862,130 @@
       <c r="C6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="13"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="24" t="s">
         <v>100</v>
       </c>
     </row>
